--- a/data/ACFMAnnualSurvey2022_DATA_LABELS_2023-04-13_1407_deindentified.xlsx
+++ b/data/ACFMAnnualSurvey2022_DATA_LABELS_2023-04-13_1407_deindentified.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5061" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5053" uniqueCount="830">
   <si>
     <t xml:space="preserve">Record ID</t>
   </si>
@@ -1133,7 +1133,7 @@
     <t xml:space="preserve">22/07/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">200%</t>
+    <t xml:space="preserve">200</t>
   </si>
   <si>
     <t xml:space="preserve">Viaflo 96 channel pipette</t>
@@ -1193,10 +1193,10 @@
     <t xml:space="preserve">17/08/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">20%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50%</t>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
   </si>
   <si>
     <t xml:space="preserve">4/08/2022 21:51</t>
@@ -1226,18 +1226,12 @@
     <t xml:space="preserve">PLGS - 1 copy</t>
   </si>
   <si>
-    <t xml:space="preserve">Infinite (free for internal users)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ion Mobility Qtof - very happy with current Ion Mobility Qtof instrument but need more capacity for metabolomics and proteomics analysis</t>
   </si>
   <si>
     <t xml:space="preserve">Lack of funding for adequate staffing (due to impacts of Covid-19)</t>
   </si>
   <si>
-    <t xml:space="preserve">1-Feb</t>
-  </si>
-  <si>
     <t xml:space="preserve">4/08/2022 17:12</t>
   </si>
   <si>
@@ -1280,7 +1274,7 @@
     <t xml:space="preserve">10/08/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">300%</t>
+    <t xml:space="preserve">300</t>
   </si>
   <si>
     <t xml:space="preserve">Orbitrap tribrid for TMT work</t>
@@ -1298,9 +1292,6 @@
     <t xml:space="preserve">11/08/2022 7:35</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;250</t>
-  </si>
-  <si>
     <t xml:space="preserve">Orbitrap Fusion Lumos with FAIMS, versatility and flexibility for a great variety of applications</t>
   </si>
   <si>
@@ -1328,12 +1319,6 @@
     <t xml:space="preserve">ion trap LTQ</t>
   </si>
   <si>
-    <t xml:space="preserve">2x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-6x</t>
-  </si>
-  <si>
     <t xml:space="preserve">Imaging instrument to grow our capacity as more demand that current capacity</t>
   </si>
   <si>
@@ -1373,7 +1358,7 @@
     <t xml:space="preserve">$250,000</t>
   </si>
   <si>
-    <t xml:space="preserve">100%</t>
+    <t xml:space="preserve">100</t>
   </si>
   <si>
     <t xml:space="preserve">We manage the instruments within the lab. We don't allow users to operate the instruments</t>
@@ -1391,7 +1376,7 @@
     <t xml:space="preserve">18/08/2022</t>
   </si>
   <si>
-    <t xml:space="preserve">70%</t>
+    <t xml:space="preserve">70</t>
   </si>
   <si>
     <t xml:space="preserve">One-off 2022 Internal Grant for Comms (25k)</t>
@@ -1437,12 +1422,6 @@
   </si>
   <si>
     <t xml:space="preserve">UniDec: 3; MZMine3:2; Analyzer Pro: 1; AMDIS:6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5X</t>
   </si>
   <si>
     <t xml:space="preserve">The latest Thermo Tribrid with FAIMS and microfluidic front end for sample prep and ultra low flow UHPLC</t>
@@ -2538,9 +2517,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -2607,12 +2587,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2639,8 +2623,8 @@
   </sheetPr>
   <dimension ref="A1:KQ39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="KQ1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="KV7" activeCellId="0" sqref="KV7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="FP1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="FP1" activeCellId="0" sqref="FP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18595,12 +18579,6 @@
       <c r="FN22" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="FP22" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="FQ22" s="0" t="s">
-        <v>401</v>
-      </c>
       <c r="FR22" s="0" t="s">
         <v>280</v>
       </c>
@@ -18935,10 +18913,10 @@
         <v>50</v>
       </c>
       <c r="KM22" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="KN22" s="0" t="s">
         <v>402</v>
-      </c>
-      <c r="KN22" s="0" t="s">
-        <v>403</v>
       </c>
       <c r="KQ22" s="0" t="s">
         <v>297</v>
@@ -19356,9 +19334,6 @@
       <c r="FN23" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="FP23" s="0" t="s">
-        <v>404</v>
-      </c>
       <c r="FQ23" s="0" t="n">
         <v>40</v>
       </c>
@@ -19587,10 +19562,10 @@
         <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>284</v>
@@ -19860,7 +19835,7 @@
         <v>271</v>
       </c>
       <c r="DO24" s="0" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="DP24" s="0" t="n">
         <v>0</v>
@@ -20343,7 +20318,7 @@
         <v>271</v>
       </c>
       <c r="KF24" s="0" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="KG24" s="0" t="s">
         <v>301</v>
@@ -20361,7 +20336,7 @@
         <v>50</v>
       </c>
       <c r="KM24" s="0" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="KQ24" s="0" t="s">
         <v>297</v>
@@ -20372,10 +20347,10 @@
         <v>24</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>275</v>
@@ -20633,7 +20608,7 @@
         <v>1</v>
       </c>
       <c r="DM25" s="0" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="DN25" s="0" t="s">
         <v>281</v>
@@ -20891,7 +20866,7 @@
         <v>1</v>
       </c>
       <c r="HB25" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="HC25" s="0" t="n">
         <v>2</v>
@@ -21113,7 +21088,7 @@
         <v>271</v>
       </c>
       <c r="KF25" s="0" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="KG25" s="0" t="s">
         <v>294</v>
@@ -21134,10 +21109,10 @@
         <v>10</v>
       </c>
       <c r="KM25" s="0" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="KN25" s="0" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="KQ25" s="0" t="s">
         <v>297</v>
@@ -21148,10 +21123,10 @@
         <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>284</v>
@@ -21553,7 +21528,7 @@
         <v>0</v>
       </c>
       <c r="FQ26" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="FR26" s="0" t="n">
         <v>4</v>
@@ -21811,10 +21786,10 @@
         <v>301</v>
       </c>
       <c r="KM26" s="0" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="KN26" s="0" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="KQ26" s="0" t="s">
         <v>297</v>
@@ -21825,10 +21800,10 @@
         <v>26</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>284</v>
@@ -22407,7 +22382,7 @@
         <v>271</v>
       </c>
       <c r="KF27" s="0" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="KQ27" s="0" t="s">
         <v>297</v>
@@ -22418,10 +22393,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>284</v>
@@ -22831,8 +22806,8 @@
       <c r="FN28" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="FQ28" s="0" t="s">
-        <v>425</v>
+      <c r="FQ28" s="0" t="n">
+        <v>250</v>
       </c>
       <c r="FR28" s="0" t="n">
         <v>4</v>
@@ -23114,10 +23089,10 @@
         <v>301</v>
       </c>
       <c r="KM28" s="0" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="KN28" s="0" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="KQ28" s="0" t="s">
         <v>297</v>
@@ -23128,10 +23103,10 @@
         <v>28</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>275</v>
@@ -23170,7 +23145,7 @@
         <v>267</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Y29" s="0" t="n">
         <v>0</v>
@@ -23884,10 +23859,10 @@
         <v>15</v>
       </c>
       <c r="KM29" s="0" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="KN29" s="0" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="KQ29" s="0" t="s">
         <v>297</v>
@@ -23898,10 +23873,10 @@
         <v>29</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>284</v>
@@ -24162,7 +24137,7 @@
         <v>271</v>
       </c>
       <c r="DO30" s="0" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="DP30" s="0" t="n">
         <v>0</v>
@@ -24314,11 +24289,11 @@
       <c r="FN30" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="FP30" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="FQ30" s="0" t="s">
-        <v>436</v>
+      <c r="FP30" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="FQ30" s="0" t="n">
+        <v>300</v>
       </c>
       <c r="FS30" s="0" t="n">
         <v>2</v>
@@ -24555,10 +24530,10 @@
         <v>301</v>
       </c>
       <c r="KM30" s="0" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="KN30" s="0" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="KQ30" s="0" t="s">
         <v>297</v>
@@ -24569,10 +24544,10 @@
         <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>284</v>
@@ -25213,7 +25188,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>309</v>
@@ -25906,7 +25881,7 @@
         <v>271</v>
       </c>
       <c r="KF32" s="0" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="KG32" s="0" t="s">
         <v>301</v>
@@ -25921,10 +25896,10 @@
         <v>301</v>
       </c>
       <c r="KM32" s="0" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="KN32" s="0" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="KQ32" s="0" t="s">
         <v>297</v>
@@ -25935,7 +25910,7 @@
         <v>32</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>389</v>
@@ -26196,7 +26171,7 @@
         <v>271</v>
       </c>
       <c r="DO33" s="0" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="DP33" s="0" t="n">
         <v>0</v>
@@ -26688,10 +26663,10 @@
         <v>301</v>
       </c>
       <c r="KM33" s="0" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="KN33" s="0" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="KQ33" s="0" t="s">
         <v>297</v>
@@ -26702,7 +26677,7 @@
         <v>33</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>389</v>
@@ -26744,7 +26719,7 @@
         <v>267</v>
       </c>
       <c r="V34" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="Y34" s="0" t="n">
         <v>0</v>
@@ -27101,7 +27076,7 @@
         <v>390</v>
       </c>
       <c r="FQ34" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="FR34" s="0" t="n">
         <v>4</v>
@@ -27185,7 +27160,7 @@
         <v>1</v>
       </c>
       <c r="HB34" s="0" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="HC34" s="0" t="n">
         <v>1</v>
@@ -27377,10 +27352,10 @@
         <v>301</v>
       </c>
       <c r="KM34" s="0" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="KN34" s="0" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="KQ34" s="0" t="s">
         <v>297</v>
@@ -27391,10 +27366,10 @@
         <v>34</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>275</v>
@@ -27796,7 +27771,7 @@
         <v>391</v>
       </c>
       <c r="FQ35" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="FR35" s="0" t="n">
         <v>5</v>
@@ -27919,7 +27894,7 @@
         <v>77</v>
       </c>
       <c r="HL35" s="0" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="HM35" s="0" t="s">
         <v>271</v>
@@ -28123,7 +28098,7 @@
         <v>271</v>
       </c>
       <c r="KF35" s="0" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="KG35" s="0" t="s">
         <v>294</v>
@@ -28144,10 +28119,10 @@
         <v>20</v>
       </c>
       <c r="KM35" s="0" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="KN35" s="0" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="KQ35" s="0" t="s">
         <v>297</v>
@@ -28158,10 +28133,10 @@
         <v>35</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>275</v>
@@ -28200,7 +28175,7 @@
         <v>267</v>
       </c>
       <c r="V36" s="0" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="W36" s="0" t="s">
         <v>268</v>
@@ -28569,7 +28544,7 @@
         <v>272</v>
       </c>
       <c r="FO36" s="0" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="FR36" s="0" t="n">
         <v>3</v>
@@ -28878,7 +28853,7 @@
         <v>271</v>
       </c>
       <c r="KF36" s="0" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="KG36" s="0" t="s">
         <v>301</v>
@@ -28890,10 +28865,10 @@
         <v>301</v>
       </c>
       <c r="KM36" s="0" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="KN36" s="0" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="KQ36" s="0" t="s">
         <v>297</v>
@@ -28904,10 +28879,10 @@
         <v>36</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>284</v>
@@ -29135,7 +29110,7 @@
         <v>0</v>
       </c>
       <c r="CU37" s="0" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="CW37" s="0" t="n">
         <v>80</v>
@@ -29180,7 +29155,7 @@
         <v>0</v>
       </c>
       <c r="DM37" s="0" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="DN37" s="0" t="s">
         <v>281</v>
@@ -29303,7 +29278,7 @@
         <v>1</v>
       </c>
       <c r="FC37" s="0" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="FD37" s="0" t="n">
         <v>0</v>
@@ -29338,11 +29313,11 @@
       <c r="FN37" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="FP37" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="FQ37" s="0" t="s">
-        <v>473</v>
+      <c r="FP37" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="FQ37" s="0" t="n">
+        <v>250</v>
       </c>
       <c r="FR37" s="0" t="s">
         <v>280</v>
@@ -29678,10 +29653,10 @@
         <v>294</v>
       </c>
       <c r="KM37" s="0" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="KN37" s="0" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="KQ37" s="0" t="s">
         <v>297</v>
@@ -29692,7 +29667,7 @@
         <v>37</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>333</v>
@@ -29734,7 +29709,7 @@
         <v>272</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="Y38" s="0" t="n">
         <v>0</v>
@@ -29959,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="DW38" s="0" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="DX38" s="0" t="n">
         <v>0</v>
@@ -30088,10 +30063,10 @@
         <v>272</v>
       </c>
       <c r="FO38" s="0" t="s">
-        <v>479</v>
-      </c>
-      <c r="FP38" s="0" t="n">
-        <v>150</v>
+        <v>472</v>
+      </c>
+      <c r="FP38" s="2" t="n">
+        <v>0.5</v>
       </c>
       <c r="FQ38" s="0" t="n">
         <v>200</v>
@@ -30118,7 +30093,7 @@
         <v>100</v>
       </c>
       <c r="GD38" s="0" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="GE38" s="0" t="n">
         <v>0</v>
@@ -30355,10 +30330,10 @@
         <v>5</v>
       </c>
       <c r="KM38" s="0" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="KN38" s="0" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="KQ38" s="0" t="s">
         <v>297</v>
@@ -30369,10 +30344,10 @@
         <v>38</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>311</v>
@@ -30381,7 +30356,7 @@
         <v>77</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>319</v>
@@ -30414,10 +30389,10 @@
         <v>272</v>
       </c>
       <c r="U39" s="0" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="Y39" s="0" t="n">
         <v>2</v>
@@ -31122,13 +31097,13 @@
         <v>10</v>
       </c>
       <c r="KM39" s="0" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="KN39" s="0" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="KO39" s="0" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="KQ39" s="0" t="s">
         <v>297</v>
@@ -31152,14 +31127,14 @@
   </sheetPr>
   <dimension ref="A1:N350"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G183" activeCellId="0" sqref="G183"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A180" activeCellId="0" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="37.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.59"/>
   </cols>
@@ -31174,22 +31149,22 @@
         <v>'Record ID',</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31202,22 +31177,22 @@
         <v>'Data Access Group',</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31230,24 +31205,24 @@
         <v>'Survey Identifier',</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>493</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="str">
@@ -31259,22 +31234,22 @@
         <v>'Survey Timestamp',</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31287,22 +31262,22 @@
         <v>'Start date',</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31315,22 +31290,22 @@
         <v>'Is your host institution a ',</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>484</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>491</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>498</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31343,22 +31318,22 @@
         <v>'What other types of host institution do you have?',</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31371,22 +31346,22 @@
         <v>'Is your facility a ',</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31399,22 +31374,22 @@
         <v>'What other type of facility are you?',</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31427,22 +31402,22 @@
         <v>'Are you a...',</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31455,22 +31430,22 @@
         <v>'What other job title do you have?',</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31483,22 +31458,22 @@
         <v>'Do you have, or plan to have an accreditation (e.g. NATA / ISO)?',</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31511,22 +31486,22 @@
         <v>'Is there any infrastructure in place at your host institute that indirectly supports your facility in the following areas?   Please report support here that is not directly costed to your operating budget. For example, if a member of your team calculates the invoice for a user but then sends that another person in your institution that you do not pay the salary of to process that invoice, that would count as support for invoicing.  (choice=Invoicing)',</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31539,22 +31514,22 @@
         <v>'Is there any infrastructure in place at your host institute that indirectly supports your facility in the following areas?   Please report support here that is not directly costed to your operating budget. For example, if a member of your team calculates the invoice for a user but then sends that another person in your institution that you do not pay the salary of to process that invoice, that would count as support for invoicing.  (choice=Ordering)',</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31567,22 +31542,22 @@
         <v>'Is there any infrastructure in place at your host institute that indirectly supports your facility in the following areas?   Please report support here that is not directly costed to your operating budget. For example, if a member of your team calculates the invoice for a user but then sends that another person in your institution that you do not pay the salary of to process that invoice, that would count as support for invoicing.  (choice=Marketing (inc. websites))',</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31595,22 +31570,22 @@
         <v>'Is there any infrastructure in place at your host institute that indirectly supports your facility in the following areas?   Please report support here that is not directly costed to your operating budget. For example, if a member of your team calculates the invoice for a user but then sends that another person in your institution that you do not pay the salary of to process that invoice, that would count as support for invoicing.  (choice=Fundraising)',</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31623,22 +31598,22 @@
         <v>'Is there any infrastructure in place at your host institute that indirectly supports your facility in the following areas?   Please report support here that is not directly costed to your operating budget. For example, if a member of your team calculates the invoice for a user but then sends that another person in your institution that you do not pay the salary of to process that invoice, that would count as support for invoicing.  (choice=Grant-writing support)',</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31651,22 +31626,22 @@
         <v>'Is there any infrastructure in place at your host institute that indirectly supports your facility in the following areas?   Please report support here that is not directly costed to your operating budget. For example, if a member of your team calculates the invoice for a user but then sends that another person in your institution that you do not pay the salary of to process that invoice, that would count as support for invoicing.  (choice=IT)',</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31679,22 +31654,22 @@
         <v>'Is there any infrastructure in place at your host institute that indirectly supports your facility in the following areas?   Please report support here that is not directly costed to your operating budget. For example, if a member of your team calculates the invoice for a user but then sends that another person in your institution that you do not pay the salary of to process that invoice, that would count as support for invoicing.  (choice=Workshop)',</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31707,22 +31682,22 @@
         <v>'Is there any infrastructure in place at your host institute that indirectly supports your facility in the following areas?   Please report support here that is not directly costed to your operating budget. For example, if a member of your team calculates the invoice for a user but then sends that another person in your institution that you do not pay the salary of to process that invoice, that would count as support for invoicing.  (choice=Other)',</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31735,22 +31710,22 @@
         <v>'What other types of support does your institution provide?',</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31763,22 +31738,22 @@
         <v>'Staff Costs',</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31791,22 +31766,22 @@
         <v>'Non-AUD currencies.',</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31819,22 +31794,22 @@
         <v>'What other currency are you reporting?',</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>23</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31847,22 +31822,22 @@
         <v>'For your female academic staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on continuing appointments?',</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31875,22 +31850,22 @@
         <v>'For your female academic staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on fixed-term appointments?',</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31903,22 +31878,22 @@
         <v>'For your female academic staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on casual appointments?',</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31931,22 +31906,22 @@
         <v>'Your total female academic FTE is',</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31959,22 +31934,22 @@
         <v>'For your male academic staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on continuing appointments?',</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -31987,22 +31962,22 @@
         <v>'For your male academic staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on fixed-term appointments?',</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32015,22 +31990,22 @@
         <v>'For your male academic staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on casual appointments?',</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32043,22 +32018,22 @@
         <v>'Your total male academic FTE is: ',</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32071,22 +32046,22 @@
         <v>'For your other academic staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on continuing appointments?',</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32099,22 +32074,22 @@
         <v>'For your other academic staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on fixed-term appointments?',</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32127,22 +32102,22 @@
         <v>'For your other academic staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on casual appointments?',</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32155,22 +32130,22 @@
         <v>'Your total other academic FTE is: ',</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32183,22 +32158,22 @@
         <v>'For your female professional staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on continuing appointments?',</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32211,22 +32186,22 @@
         <v>'For your female professional staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on fixed-term appointments?',</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32239,22 +32214,22 @@
         <v>'For your female professional staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on casual appointments?',</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32267,22 +32242,22 @@
         <v>'Your total female professional FTE is',</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>39</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32295,22 +32270,22 @@
         <v>'For your male professional staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on continuing appointments?',</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32323,22 +32298,22 @@
         <v>'For your male professional staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on fixed-term appointments?',</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32351,22 +32326,22 @@
         <v>'For your male professional staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on casual appointments?',</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32379,22 +32354,22 @@
         <v>'Your total male professional FTE is: ',</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32407,22 +32382,22 @@
         <v>'For your other professional staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on continuing appointments?',</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32435,22 +32410,22 @@
         <v>'For your other professional staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on fixed-term appointments?',</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32463,22 +32438,22 @@
         <v>'For your other professional staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on casual appointments?',</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32491,22 +32466,22 @@
         <v>'Your total other professional FTE is:',</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>47</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32519,22 +32494,22 @@
         <v>'For your female administrative staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on continuing appointments?',</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32547,22 +32522,22 @@
         <v>'For your female administrative staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on fixed-term appointments?',</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32575,22 +32550,22 @@
         <v>'For your female administrative staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on casual appointments?',</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32603,22 +32578,22 @@
         <v>'Your total female administrative FTE is',</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>51</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32631,22 +32606,22 @@
         <v>'For your male administrative staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on continuing appointments?',</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32659,22 +32634,22 @@
         <v>'For your male administrative staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on fixed-term appointments?',</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32687,22 +32662,22 @@
         <v>'For your male administrative staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on casual appointments?',</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32715,22 +32690,22 @@
         <v>'Your total male administrative FTE is: ',</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32743,22 +32718,22 @@
         <v>'For your other administrative staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on continuing appointments?',</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32771,22 +32746,22 @@
         <v>'For your other administrative staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on fixed-term appointments?',</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32799,22 +32774,22 @@
         <v>'For your other administrative staff, how many Full-Time Equivalent (so accommodating part-time and fractional appointments) are on casual appointments?',</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32827,22 +32802,22 @@
         <v>'Your total other administrative FTE is: ',</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32855,22 +32830,22 @@
         <v>'Your total staff FTE is: ',</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32883,22 +32858,22 @@
         <v>'Q-Orbitrap-IT',</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>61</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32911,22 +32886,22 @@
         <v>'Q-Orbitrap-IT_Ion_mobility',</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>62</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32939,22 +32914,22 @@
         <v>'Q-Orbitrap',</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>63</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32967,22 +32942,22 @@
         <v>'Q-Orbitrap ion mobility',</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>64</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32995,22 +32970,22 @@
         <v>'QTOF',</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>65</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33023,22 +32998,22 @@
         <v>'QTOF Ion mobility',</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>66</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33051,22 +33026,22 @@
         <v>'QQQ/QTRAP',</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>67</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33079,22 +33054,22 @@
         <v>'QQQ/QTRAP Ion mobility',</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>68</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33107,22 +33082,22 @@
         <v>'TOF-TOF',</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>69</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33135,22 +33110,22 @@
         <v>'TOF-TOF ion mobility',</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>70</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33163,22 +33138,22 @@
         <v>'FT-ICR',</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>71</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33191,22 +33166,22 @@
         <v>'FT-ICR ion mob',</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>72</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33219,22 +33194,22 @@
         <v>'IT',</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>73</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33247,22 +33222,22 @@
         <v>'IT ion mobility',</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>74</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33275,22 +33250,22 @@
         <v>'Single Q',</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>75</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33303,22 +33278,22 @@
         <v>'Single Q ion mobility',</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>76</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33331,22 +33306,22 @@
         <v>'Other',</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>77</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33359,22 +33334,22 @@
         <v>'Other ion mobility',</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>78</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33387,22 +33362,22 @@
         <v>'Total number of mass spectrometers',</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>79</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33415,22 +33390,22 @@
         <v>'Q-Orbitrap-IT',</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>61</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33443,22 +33418,22 @@
         <v>'Q-Orbitrap',</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>63</v>
       </c>
       <c r="I82" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33471,22 +33446,22 @@
         <v>'QTOF',</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>65</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33499,22 +33474,22 @@
         <v>'QQQ/QTRAP',</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>67</v>
       </c>
       <c r="I84" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33527,22 +33502,22 @@
         <v>'TOF-TOF',</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>69</v>
       </c>
       <c r="I85" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33555,22 +33530,22 @@
         <v>'FT-ICR',</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>71</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33583,22 +33558,22 @@
         <v>'IT',</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>73</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33611,22 +33586,22 @@
         <v>'Single Q',</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>75</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33639,22 +33614,22 @@
         <v>'Other',</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>77</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33667,22 +33642,22 @@
         <v>'Q-Orbitrap-IT',</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>61</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33695,22 +33670,22 @@
         <v>'Q-Orbitrap',</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>63</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33723,22 +33698,22 @@
         <v>'QTOF',</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>65</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33751,22 +33726,22 @@
         <v>'QQQ/QTRAP',</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>67</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33779,22 +33754,22 @@
         <v>'TOF-TOF',</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>69</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33807,22 +33782,22 @@
         <v>'FT-ICR',</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>71</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33835,22 +33810,22 @@
         <v>'IT',</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>73</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33863,22 +33838,22 @@
         <v>'Single Q',</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>75</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33891,22 +33866,22 @@
         <v>'Other',</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>77</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33919,22 +33894,22 @@
         <v>'What other type of mass spectrometer do you have?',</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>80</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33947,22 +33922,22 @@
         <v>'What other type of procurement process has led to you getting one or more mass spectrometer(s)?',</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>81</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33975,22 +33950,22 @@
         <v>'Host institution funded',</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>82</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34003,22 +33978,22 @@
         <v>'Philanthropy',</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>83</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34031,22 +34006,22 @@
         <v>'State grant',</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>84</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34059,22 +34034,22 @@
         <v>'Federal grant (excluding NCRIS/RIIP)',</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>85</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34087,22 +34062,22 @@
         <v>'Federal grant (NCRIS/RIIP)',</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>86</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34115,22 +34090,22 @@
         <v>'Charity grant',</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H106" s="0" t="s">
         <v>87</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34143,22 +34118,22 @@
         <v>'Self funded (user fees)',</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>88</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34171,22 +34146,22 @@
         <v>'Other',</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>77</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34199,22 +34174,22 @@
         <v>'The % funding total is:',</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H109" s="0" t="s">
         <v>89</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34227,22 +34202,22 @@
         <v>'Maintenance cost',</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H110" s="0" t="s">
         <v>90</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34255,22 +34230,22 @@
         <v>'Non-AUD currencies.',</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>22</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34283,22 +34258,22 @@
         <v>'What other currency are you reporting?',</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H112" s="0" t="s">
         <v>23</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34311,22 +34286,22 @@
         <v>'Manufacturer's warranty',</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>91</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34339,22 +34314,22 @@
         <v>'Full maintenance',</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>92</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34367,22 +34342,22 @@
         <v>'Preventative only',</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>93</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34395,22 +34370,22 @@
         <v>'No pre-paid cover',</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H116" s="0" t="s">
         <v>94</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34423,22 +34398,22 @@
         <v>'Other',</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>77</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34451,22 +34426,22 @@
         <v>'Did you decommission any mass spectrometers in 2021?',</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E118" s="0" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F118" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>95</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34479,22 +34454,22 @@
         <v>'What model(s) did you decommission?',</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E119" s="0" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>96</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34507,22 +34482,22 @@
         <v>'HDI',</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E120" s="0" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H120" s="0" t="s">
         <v>97</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34535,22 +34510,22 @@
         <v>'SCilS',</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E121" s="0" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>98</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34563,22 +34538,22 @@
         <v>'Byonic',</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E122" s="0" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>99</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34591,22 +34566,22 @@
         <v>'DIA-NN',</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E123" s="0" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="F123" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>100</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34619,22 +34594,22 @@
         <v>'EncyclopaDIA',</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E124" s="0" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F124" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H124" s="0" t="s">
         <v>101</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34647,22 +34622,22 @@
         <v>'Mascot',</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E125" s="0" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="F125" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H125" s="0" t="s">
         <v>102</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34675,22 +34650,22 @@
         <v>'Mass Dynamics',</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E126" s="0" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F126" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H126" s="0" t="s">
         <v>103</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34703,22 +34678,22 @@
         <v>'Mass Hunter',</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E127" s="0" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="F127" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>104</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34731,22 +34706,22 @@
         <v>'Max Quant',</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E128" s="0" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F128" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>105</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34759,22 +34734,22 @@
         <v>'Metamorpheus',</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E129" s="0" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="F129" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>106</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34787,22 +34762,22 @@
         <v>'MSFragger',</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E130" s="0" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H130" s="0" t="s">
         <v>107</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34815,22 +34790,22 @@
         <v>'OpenMS',</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E131" s="0" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H131" s="0" t="s">
         <v>108</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34843,22 +34818,22 @@
         <v>'Peaks',</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E132" s="0" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H132" s="0" t="s">
         <v>109</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34871,22 +34846,22 @@
         <v>'PeakView/SWATH',</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E133" s="0" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H133" s="0" t="s">
         <v>110</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34899,22 +34874,22 @@
         <v>'Progenesis QI for Proteomics ',</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E134" s="0" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F134" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H134" s="0" t="s">
         <v>111</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34927,22 +34902,22 @@
         <v>'Proteome Discoverer',</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E135" s="0" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="F135" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H135" s="0" t="s">
         <v>112</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34955,22 +34930,22 @@
         <v>'ProteinPilot',</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E136" s="0" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F136" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H136" s="0" t="s">
         <v>113</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34983,22 +34958,22 @@
         <v>'Scaffold',</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E137" s="0" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="F137" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H137" s="0" t="s">
         <v>114</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35011,22 +34986,22 @@
         <v>'Spectronaut',</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E138" s="0" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F138" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H138" s="0" t="s">
         <v>115</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35039,22 +35014,22 @@
         <v>'SwathXtend',</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E139" s="0" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F139" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H139" s="0" t="s">
         <v>116</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35067,22 +35042,22 @@
         <v>'Trans-Proteomics Pipeline',</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E140" s="0" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F140" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H140" s="0" t="s">
         <v>117</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35095,22 +35070,22 @@
         <v>'Analyst',</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E141" s="0" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H141" s="0" t="s">
         <v>118</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35123,22 +35098,22 @@
         <v>'Compound Discoverer',</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E142" s="0" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H142" s="0" t="s">
         <v>119</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35151,22 +35126,22 @@
         <v>'ChemStation',</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E143" s="0" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H143" s="0" t="s">
         <v>120</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35179,22 +35154,22 @@
         <v>'LipidSearch',</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E144" s="0" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H144" s="0" t="s">
         <v>121</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35207,22 +35182,22 @@
         <v>'LipidView',</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E145" s="0" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="F145" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H145" s="0" t="s">
         <v>122</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35235,22 +35210,22 @@
         <v>'Protenesis QI',</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E146" s="0" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F146" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H146" s="0" t="s">
         <v>123</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35263,22 +35238,22 @@
         <v>'MassLynx ',</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E147" s="0" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H147" s="0" t="s">
         <v>124</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35291,22 +35266,22 @@
         <v>'MS-DIAL ',</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E148" s="0" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H148" s="0" t="s">
         <v>125</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35319,22 +35294,22 @@
         <v>'MetabolomeExpress',</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E149" s="0" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="F149" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H149" s="0" t="s">
         <v>126</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35347,22 +35322,22 @@
         <v>'FreeStyle',</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E150" s="0" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F150" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H150" s="0" t="s">
         <v>127</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35375,22 +35350,22 @@
         <v>'GCImage',</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E151" s="0" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="F151" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H151" s="0" t="s">
         <v>128</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35403,22 +35378,22 @@
         <v>'Insight',</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E152" s="0" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H152" s="0" t="s">
         <v>129</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35431,22 +35406,22 @@
         <v>'Multiquant',</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E153" s="0" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H153" s="0" t="s">
         <v>130</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35459,22 +35434,22 @@
         <v>'Qualbrowser',</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E154" s="0" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H154" s="0" t="s">
         <v>131</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35487,22 +35462,22 @@
         <v>'Skyline',</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E155" s="0" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H155" s="0" t="s">
         <v>132</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35515,22 +35490,22 @@
         <v>'SciexOS',</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E156" s="0" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F156" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H156" s="0" t="s">
         <v>133</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35543,22 +35518,22 @@
         <v>'TargetLynx',</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E157" s="0" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F157" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H157" s="0" t="s">
         <v>134</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35571,22 +35546,22 @@
         <v>'Tracefinder',</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E158" s="0" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F158" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H158" s="0" t="s">
         <v>135</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35599,22 +35574,22 @@
         <v>'Other',</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E159" s="0" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="F159" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H159" s="0" t="s">
         <v>77</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35627,22 +35602,22 @@
         <v>'Subscription',</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E160" s="0" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F160" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H160" s="0" t="s">
         <v>136</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35655,22 +35630,22 @@
         <v>'Fee-for-service (per sample billing)',</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E161" s="0" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="F161" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H161" s="0" t="s">
         <v>137</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35683,22 +35658,22 @@
         <v>'Fee-for-service (per hour billing)',</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E162" s="0" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F162" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H162" s="0" t="s">
         <v>138</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35711,22 +35686,22 @@
         <v>'Self-service (per sample billing)',</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E163" s="0" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H163" s="0" t="s">
         <v>139</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35739,22 +35714,22 @@
         <v>'Self-service (per hour billing)',</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E164" s="0" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H164" s="0" t="s">
         <v>140</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35767,22 +35742,22 @@
         <v>'Other',</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E165" s="0" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H165" s="0" t="s">
         <v>77</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35795,22 +35770,22 @@
         <v>'The % pricing model total is:',</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E166" s="0" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H166" s="0" t="s">
         <v>141</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35823,22 +35798,22 @@
         <v>'What pricing rates do you have? (choice=Academia (internal) rate)',</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E167" s="0" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="F167" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H167" s="0" t="s">
         <v>142</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35851,22 +35826,22 @@
         <v>'What pricing rates do you have? (choice=Academia (external) rate)',</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E168" s="0" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F168" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H168" s="0" t="s">
         <v>143</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35879,22 +35854,22 @@
         <v>'What pricing rates do you have? (choice=Commercial customer rate)',</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E169" s="0" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="F169" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H169" s="0" t="s">
         <v>144</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35907,22 +35882,22 @@
         <v>'What pricing rates do you have? (choice=Other)',</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E170" s="0" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F170" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H170" s="0" t="s">
         <v>145</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35935,22 +35910,22 @@
         <v>'What other rates do you have?',</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E171" s="0" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H171" s="0" t="s">
         <v>146</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35963,22 +35938,22 @@
         <v>'What typical percentage increase is applied to academia (external) customers relative to academia (internal)?',</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E172" s="0" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F172" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H172" s="0" t="s">
         <v>147</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35991,22 +35966,22 @@
         <v>'What typical percentage increase is applied to commercial customers relative to academia (internal)?',</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E173" s="0" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="F173" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H173" s="0" t="s">
         <v>148</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36019,22 +35994,22 @@
         <v>'Maximum profit',</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E174" s="0" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H174" s="0" t="s">
         <v>149</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36047,22 +36022,22 @@
         <v>'What the market will bare',</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E175" s="0" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H175" s="0" t="s">
         <v>150</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36075,22 +36050,22 @@
         <v>'Cover direct costs',</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E176" s="0" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H176" s="0" t="s">
         <v>151</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36103,22 +36078,22 @@
         <v>'What the host will subsidise',</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E177" s="0" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H177" s="0" t="s">
         <v>152</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36131,22 +36106,22 @@
         <v>'Other',</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E178" s="0" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F178" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H178" s="0" t="s">
         <v>77</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36159,22 +36134,22 @@
         <v>'What other factors do you use to set you rates?',</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E179" s="0" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="F179" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H179" s="0" t="s">
         <v>153</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36187,22 +36162,22 @@
         <v>'Academics',</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E180" s="0" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F180" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H180" s="0" t="s">
         <v>154</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36215,22 +36190,22 @@
         <v>'Clinicians',</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E181" s="0" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="F181" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H181" s="0" t="s">
         <v>155</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36243,22 +36218,22 @@
         <v>'Students (Hons - PhD)',</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E182" s="0" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F182" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H182" s="0" t="s">
         <v>156</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36271,22 +36246,22 @@
         <v>'Commercial',</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E183" s="0" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="F183" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H183" s="0" t="s">
         <v>157</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36299,22 +36274,22 @@
         <v>'Other',</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E184" s="0" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F184" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H184" s="0" t="s">
         <v>77</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36327,22 +36302,22 @@
         <v>'The % funding total is:',</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E185" s="0" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H185" s="0" t="s">
         <v>89</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36355,22 +36330,22 @@
         <v>'What other type(s) of customer do you have?',</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E186" s="0" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H186" s="0" t="s">
         <v>158</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36383,22 +36358,22 @@
         <v>'Host School/Department',</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E187" s="0" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H187" s="0" t="s">
         <v>159</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36411,22 +36386,22 @@
         <v>'Host Institute/University',</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E188" s="0" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H188" s="0" t="s">
         <v>160</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36439,22 +36414,22 @@
         <v>'Local city',</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E189" s="0" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="F189" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H189" s="0" t="s">
         <v>161</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36467,22 +36442,22 @@
         <v>'Local state',</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E190" s="0" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H190" s="0" t="s">
         <v>162</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36495,22 +36470,22 @@
         <v>'Rest of your country (excluding your state)',</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E191" s="0" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="F191" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H191" s="0" t="s">
         <v>163</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36523,22 +36498,22 @@
         <v>'Asia-Pacific (excluding your country)',</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E192" s="0" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F192" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H192" s="0" t="s">
         <v>164</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36551,22 +36526,22 @@
         <v>'Rest of the world (excluding the Asia-pacific region)',</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E193" s="0" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="F193" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H193" s="0" t="s">
         <v>165</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36579,22 +36554,22 @@
         <v>'The % funding total is:',</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E194" s="0" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F194" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H194" s="0" t="s">
         <v>89</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36607,22 +36582,22 @@
         <v>'e-mail/phone',</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E195" s="0" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="F195" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H195" s="0" t="s">
         <v>166</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36635,22 +36610,22 @@
         <v>'Spreadsheet or other generic system',</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E196" s="0" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H196" s="0" t="s">
         <v>167</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36663,22 +36638,22 @@
         <v>'Part of our project management system',</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E197" s="0" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H197" s="0" t="s">
         <v>168</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36691,22 +36666,22 @@
         <v>'Custom build software package',</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E198" s="0" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H198" s="0" t="s">
         <v>169</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36719,22 +36694,22 @@
         <v>'Off the shelf customer relationship managment package',</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E199" s="0" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H199" s="0" t="s">
         <v>170</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36747,22 +36722,22 @@
         <v>'Part of someone's job',</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E200" s="0" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F200" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H200" s="0" t="s">
         <v>171</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36775,22 +36750,22 @@
         <v>'We don't use anything',</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E201" s="0" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="F201" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H201" s="0" t="s">
         <v>172</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36803,22 +36778,22 @@
         <v>'Other',</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E202" s="0" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="F202" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H202" s="0" t="s">
         <v>77</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36831,22 +36806,22 @@
         <v>'What other mechanisms do you use to sign up new users?',</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E203" s="0" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="F203" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H203" s="0" t="s">
         <v>173</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36859,22 +36834,22 @@
         <v>'Vendor training material',</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E204" s="0" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H204" s="0" t="s">
         <v>174</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36887,22 +36862,22 @@
         <v>'Vendor live sessions (face-to-face or video link)',</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E205" s="0" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="F205" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H205" s="0" t="s">
         <v>175</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36915,22 +36890,22 @@
         <v>'In-house on-line training',</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E206" s="0" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="F206" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H206" s="0" t="s">
         <v>176</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36943,22 +36918,22 @@
         <v>'In-house group sessions',</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E207" s="0" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H207" s="0" t="s">
         <v>177</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36971,22 +36946,22 @@
         <v>'In-house one-on-one sessions',</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E208" s="0" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H208" s="0" t="s">
         <v>178</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36999,22 +36974,22 @@
         <v>'Other',</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E209" s="0" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H209" s="0" t="s">
         <v>77</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37027,22 +37002,22 @@
         <v>'What other training methods do you use?',</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E210" s="0" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H210" s="0" t="s">
         <v>179</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37055,22 +37030,22 @@
         <v>'Excel or other generic system',</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E211" s="0" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="F211" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H211" s="0" t="s">
         <v>180</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37083,22 +37058,22 @@
         <v>'Customer build software package',</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E212" s="0" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F212" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H212" s="0" t="s">
         <v>181</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37111,22 +37086,22 @@
         <v>'Off the shelf dedicated package',</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E213" s="0" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="F213" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H213" s="0" t="s">
         <v>182</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37139,22 +37114,22 @@
         <v>'Part of someone's job',</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E214" s="0" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="F214" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H214" s="0" t="s">
         <v>171</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37167,22 +37142,22 @@
         <v>'We don't use anything',</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E215" s="0" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H215" s="0" t="s">
         <v>172</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37195,22 +37170,22 @@
         <v>'Other',</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E216" s="0" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F216" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H216" s="0" t="s">
         <v>77</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37223,22 +37198,22 @@
         <v>'What other project management and tracking software do you use?',</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E217" s="0" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="F217" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H217" s="0" t="s">
         <v>183</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37251,22 +37226,22 @@
         <v>'Do you measure customer satisfaction?',</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E218" s="0" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H218" s="0" t="s">
         <v>184</v>
       </c>
       <c r="I218" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37279,22 +37254,22 @@
         <v>'Do you have a budget for advertising and marketing?',</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E219" s="0" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H219" s="0" t="s">
         <v>185</v>
       </c>
       <c r="I219" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37307,22 +37282,22 @@
         <v>'Tell us more about your budget for advertising and marketing',</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E220" s="0" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H220" s="0" t="s">
         <v>186</v>
       </c>
       <c r="I220" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37335,22 +37310,22 @@
         <v>'Do you have a marketing plan?',</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E221" s="0" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H221" s="0" t="s">
         <v>187</v>
       </c>
       <c r="I221" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37363,22 +37338,22 @@
         <v>'Do you hire/use professional marketing personnel?',</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E222" s="0" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H222" s="0" t="s">
         <v>188</v>
       </c>
       <c r="I222" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37391,22 +37366,22 @@
         <v>'Who do you market to? (choice=Host School/Department)',</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E223" s="0" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="F223" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G223" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H223" s="0" t="s">
         <v>189</v>
       </c>
       <c r="I223" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37419,22 +37394,22 @@
         <v>'Who do you market to? (choice=Host Institute/University)',</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E224" s="0" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="F224" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H224" s="0" t="s">
         <v>190</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37447,22 +37422,22 @@
         <v>'Who do you market to? (choice=Local city)',</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E225" s="0" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="F225" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G225" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H225" s="0" t="s">
         <v>191</v>
       </c>
       <c r="I225" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37475,22 +37450,22 @@
         <v>'Who do you market to? (choice=Local state)',</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E226" s="0" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G226" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H226" s="0" t="s">
         <v>192</v>
       </c>
       <c r="I226" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37503,22 +37478,22 @@
         <v>'Who do you market to? (choice=Rest of your country)',</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E227" s="0" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G227" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H227" s="0" t="s">
         <v>193</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37531,22 +37506,22 @@
         <v>'Who do you market to? (choice=Asia-Pacific)',</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E228" s="0" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="F228" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H228" s="0" t="s">
         <v>194</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37559,22 +37534,22 @@
         <v>'Who do you market to? (choice=Rest of the world)',</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E229" s="0" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H229" s="0" t="s">
         <v>195</v>
       </c>
       <c r="I229" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37587,22 +37562,22 @@
         <v>'In 2021, what marketing platforms did you use? (choice=Facility website)',</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H230" s="0" t="s">
         <v>196</v>
       </c>
       <c r="I230" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37615,22 +37590,22 @@
         <v>'In 2021, what marketing platforms did you use? (choice=In-house mailing list/newsletter)',</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E231" s="0" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H231" s="0" t="s">
         <v>197</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37643,22 +37618,22 @@
         <v>'In 2021, what marketing platforms did you use? (choice=Host institute channels (website/staff news/yammer etc.))',</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E232" s="0" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H232" s="0" t="s">
         <v>198</v>
       </c>
       <c r="I232" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37671,22 +37646,22 @@
         <v>'In 2021, what marketing platforms did you use? (choice=Social media (Twitter, Facebook, LinkedIn etc.))',</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="F233" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H233" s="0" t="s">
         <v>199</v>
       </c>
       <c r="I233" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37699,22 +37674,22 @@
         <v>'In 2021, what marketing platforms did you use? (choice=Word of mouth)',</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E234" s="0" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H234" s="0" t="s">
         <v>200</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37727,22 +37702,22 @@
         <v>'In 2021, what marketing platforms did you use? (choice=Seminars/webinars)',</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E235" s="0" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H235" s="0" t="s">
         <v>201</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37755,22 +37730,22 @@
         <v>'In 2021, what marketing platforms did you use? (choice=Teaching activities)',</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="F236" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H236" s="0" t="s">
         <v>202</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37783,22 +37758,22 @@
         <v>'In 2021, what marketing platforms did you use? (choice=Trade displays at conferences)',</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E237" s="0" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="F237" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H237" s="0" t="s">
         <v>203</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37811,22 +37786,22 @@
         <v>'In 2021, what marketing platforms did you use? (choice=Paid advertisements)',</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E238" s="0" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H238" s="0" t="s">
         <v>204</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37839,22 +37814,22 @@
         <v>'In 2021, what marketing platforms did you use? (choice=Other)',</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H239" s="0" t="s">
         <v>205</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37867,22 +37842,22 @@
         <v>'What other marketing options did you use?',</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E240" s="0" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H240" s="0" t="s">
         <v>206</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37895,22 +37870,22 @@
         <v>'User fees',</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E241" s="0" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H241" s="0" t="s">
         <v>207</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37923,22 +37898,22 @@
         <v>'Charity Grants',</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E242" s="0" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H242" s="0" t="s">
         <v>208</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37951,22 +37926,22 @@
         <v>'State Grants',</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H243" s="0" t="s">
         <v>209</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -37979,22 +37954,22 @@
         <v>'Federal Grants',</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E244" s="0" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H244" s="0" t="s">
         <v>210</v>
       </c>
       <c r="I244" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38007,22 +37982,22 @@
         <v>'Host subsidy',</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E245" s="0" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H245" s="0" t="s">
         <v>211</v>
       </c>
       <c r="I245" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38035,22 +38010,22 @@
         <v>'Host philanthropy',</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E246" s="0" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="F246" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H246" s="0" t="s">
         <v>212</v>
       </c>
       <c r="I246" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38063,22 +38038,22 @@
         <v>'Other',</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E247" s="0" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H247" s="0" t="s">
         <v>77</v>
       </c>
       <c r="I247" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38091,22 +38066,22 @@
         <v>'The % funding total is:',</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="F248" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H248" s="0" t="s">
         <v>89</v>
       </c>
       <c r="I248" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38119,22 +38094,22 @@
         <v>'Are facility staff expected to apply for research funding?',</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E249" s="0" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H249" s="0" t="s">
         <v>213</v>
       </c>
       <c r="I249" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38147,22 +38122,22 @@
         <v>'No fiscal constraints',</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E250" s="0" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H250" s="0" t="s">
         <v>214</v>
       </c>
       <c r="I250" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38175,22 +38150,22 @@
         <v>'Reduce staff',</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E251" s="0" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H251" s="0" t="s">
         <v>215</v>
       </c>
       <c r="I251" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38203,22 +38178,22 @@
         <v>'Reduce services',</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E252" s="0" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G252" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H252" s="0" t="s">
         <v>216</v>
       </c>
       <c r="I252" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38231,22 +38206,22 @@
         <v>'Increasing prices',</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E253" s="0" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G253" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H253" s="0" t="s">
         <v>217</v>
       </c>
       <c r="I253" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38259,22 +38234,22 @@
         <v>'Reduce prices',</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E254" s="0" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G254" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H254" s="0" t="s">
         <v>218</v>
       </c>
       <c r="I254" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38287,22 +38262,22 @@
         <v>'Subcontract services out',</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E255" s="0" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G255" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H255" s="0" t="s">
         <v>219</v>
       </c>
       <c r="I255" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38315,22 +38290,22 @@
         <v>'Delay equipment spending',</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E256" s="0" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G256" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H256" s="0" t="s">
         <v>220</v>
       </c>
       <c r="I256" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38343,22 +38318,22 @@
         <v>'Delay infrastructure spending',</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E257" s="0" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="F257" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G257" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H257" s="0" t="s">
         <v>221</v>
       </c>
       <c r="I257" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38371,22 +38346,22 @@
         <v>'Delay the project',</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E258" s="0" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G258" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H258" s="0" t="s">
         <v>222</v>
       </c>
       <c r="I258" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38399,22 +38374,22 @@
         <v>'Increasing utilisation',</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E259" s="0" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G259" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H259" s="0" t="s">
         <v>223</v>
       </c>
       <c r="I259" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38427,22 +38402,22 @@
         <v>'Non-AUD currencies.',</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E260" s="0" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G260" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H260" s="0" t="s">
         <v>22</v>
       </c>
       <c r="I260" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38455,22 +38430,22 @@
         <v>'What other currency are you reporting?',</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E261" s="0" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G261" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H261" s="0" t="s">
         <v>23</v>
       </c>
       <c r="I261" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38483,22 +38458,22 @@
         <v>'Do you have an annual income/revenue target?',</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E262" s="0" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G262" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H262" s="0" t="s">
         <v>224</v>
       </c>
       <c r="I262" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38511,22 +38486,22 @@
         <v>'Relative to the 2021 calendar year, how has your revenue target changed for this year?',</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E263" s="0" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G263" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H263" s="0" t="s">
         <v>225</v>
       </c>
       <c r="I263" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38539,22 +38514,22 @@
         <v>'Fee-for service work',</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E264" s="0" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G264" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H264" s="0" t="s">
         <v>226</v>
       </c>
       <c r="I264" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38567,22 +38542,22 @@
         <v>'Total revenue ($)',</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E265" s="0" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G265" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H265" s="0" t="s">
         <v>227</v>
       </c>
       <c r="I265" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38595,22 +38570,22 @@
         <v>'Self-service',</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E266" s="0" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G266" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H266" s="0" t="s">
         <v>228</v>
       </c>
       <c r="I266" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38623,22 +38598,22 @@
         <v>'Instrument capacity',</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E267" s="0" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G267" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H267" s="0" t="s">
         <v>229</v>
       </c>
       <c r="I267" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38651,22 +38626,22 @@
         <v>'Data analysis',</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E268" s="0" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G268" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H268" s="0" t="s">
         <v>230</v>
       </c>
       <c r="I268" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38679,22 +38654,22 @@
         <v>'Staff capacity',</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E269" s="0" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G269" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H269" s="0" t="s">
         <v>231</v>
       </c>
       <c r="I269" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38707,22 +38682,22 @@
         <v>'With your facility user revenue, do you... (choice=Receive all of it)',</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E270" s="0" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="F270" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G270" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H270" s="0" t="s">
         <v>232</v>
       </c>
       <c r="I270" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38735,22 +38710,22 @@
         <v>'With your facility user revenue, do you... (choice=Receive a % of it)',</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="F271" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G271" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H271" s="0" t="s">
         <v>233</v>
       </c>
       <c r="I271" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38763,22 +38738,22 @@
         <v>'With your facility user revenue, do you... (choice=None of it)',</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G272" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H272" s="0" t="s">
         <v>234</v>
       </c>
       <c r="I272" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38791,22 +38766,22 @@
         <v>'With your facility user revenue, do you... (choice=It is used to reduce the operating deficit)',</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G273" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H273" s="0" t="s">
         <v>235</v>
       </c>
       <c r="I273" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38819,22 +38794,22 @@
         <v>'With your facility user revenue, do you... (choice=Is spent at the facilities discretion)',</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E274" s="0" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G274" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H274" s="0" t="s">
         <v>236</v>
       </c>
       <c r="I274" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38847,22 +38822,22 @@
         <v>'With your facility user revenue, do you... (choice=Can be carried over to the next year)',</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E275" s="0" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G275" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H275" s="0" t="s">
         <v>237</v>
       </c>
       <c r="I275" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38875,22 +38850,22 @@
         <v>'With your facility user revenue, do you... (choice=Other)',</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G276" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H276" s="0" t="s">
         <v>238</v>
       </c>
       <c r="I276" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38903,22 +38878,22 @@
         <v>'What other options do you have for user revenue?',</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E277" s="0" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G277" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H277" s="0" t="s">
         <v>239</v>
       </c>
       <c r="I277" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38931,22 +38906,22 @@
         <v>'CETSA',</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E278" s="0" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G278" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H278" s="0" t="s">
         <v>240</v>
       </c>
       <c r="I278" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38959,22 +38934,22 @@
         <v>'Fluxomics',</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E279" s="0" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G279" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H279" s="0" t="s">
         <v>241</v>
       </c>
       <c r="I279" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -38987,22 +38962,22 @@
         <v>'Glycomics',</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E280" s="0" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G280" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H280" s="0" t="s">
         <v>242</v>
       </c>
       <c r="I280" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39015,22 +38990,22 @@
         <v>'HDX',</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E281" s="0" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G281" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H281" s="0" t="s">
         <v>243</v>
       </c>
       <c r="I281" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39043,22 +39018,22 @@
         <v>'Large scale clinical MS',</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E282" s="0" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="F282" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G282" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H282" s="0" t="s">
         <v>244</v>
       </c>
       <c r="I282" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39071,22 +39046,22 @@
         <v>'Lipidomics',</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="F283" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G283" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H283" s="0" t="s">
         <v>245</v>
       </c>
       <c r="I283" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39099,22 +39074,22 @@
         <v>'Mass spectrometry imaging',</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E284" s="0" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G284" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H284" s="0" t="s">
         <v>246</v>
       </c>
       <c r="I284" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39127,22 +39102,22 @@
         <v>'Metabolomics',</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E285" s="0" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G285" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H285" s="0" t="s">
         <v>247</v>
       </c>
       <c r="I285" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39155,22 +39130,22 @@
         <v>'Modificomics',</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E286" s="0" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="F286" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G286" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H286" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I286" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39183,22 +39158,22 @@
         <v>'Proteomics',</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E287" s="0" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="F287" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G287" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H287" s="0" t="s">
         <v>249</v>
       </c>
       <c r="I287" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39211,22 +39186,22 @@
         <v>'Single cell MS 'omics',</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E288" s="0" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="F288" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G288" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H288" s="0" t="s">
         <v>250</v>
       </c>
       <c r="I288" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39239,22 +39214,22 @@
         <v>'Structural proteomic MS',</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E289" s="0" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="F289" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G289" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H289" s="0" t="s">
         <v>251</v>
       </c>
       <c r="I289" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39267,22 +39242,22 @@
         <v>'TAILS',</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="F290" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G290" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H290" s="0" t="s">
         <v>252</v>
       </c>
       <c r="I290" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39295,22 +39270,22 @@
         <v>'Do you have funding to buy any instruments or software (total spend over A$50k) in the calendar year of 2022?',</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E291" s="0" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="F291" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G291" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H291" s="0" t="s">
         <v>253</v>
       </c>
       <c r="I291" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39323,22 +39298,22 @@
         <v>'What are you planning to buy?',</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E292" s="0" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F292" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G292" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H292" s="0" t="s">
         <v>254</v>
       </c>
       <c r="I292" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39351,22 +39326,22 @@
         <v>'During the calendar year of 2022, is your staff count likely to:',</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E293" s="0" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="F293" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G293" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H293" s="0" t="s">
         <v>255</v>
       </c>
       <c r="I293" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39379,22 +39354,22 @@
         <v>'If it is likely to go up or down, by how many FTE will it move?',</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E294" s="0" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="F294" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G294" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H294" s="0" t="s">
         <v>256</v>
       </c>
       <c r="I294" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39407,22 +39382,22 @@
         <v>'During the calendar year of 2022, is your number of users likely to:',</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E295" s="0" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="F295" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G295" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H295" s="0" t="s">
         <v>257</v>
       </c>
       <c r="I295" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39435,22 +39410,22 @@
         <v>'If it is likely to go up or down, by what percentage will it move?',</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E296" s="0" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G296" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H296" s="0" t="s">
         <v>258</v>
       </c>
       <c r="I296" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39463,22 +39438,22 @@
         <v>'During the calendar year of 2022,  will the amount of fee-for-service work you do likely to:',</v>
       </c>
       <c r="D297" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E297" s="0" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G297" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H297" s="0" t="s">
         <v>259</v>
       </c>
       <c r="I297" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39491,22 +39466,22 @@
         <v>'If it is likely to go up or down, by what percentage will it move?',</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E298" s="0" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G298" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H298" s="0" t="s">
         <v>258</v>
       </c>
       <c r="I298" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39519,22 +39494,22 @@
         <v>'If resources were not an issue, what one instrument would you buy today, and why?',</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="F299" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G299" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H299" s="0" t="s">
         <v>260</v>
       </c>
       <c r="I299" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39547,22 +39522,22 @@
         <v>'What do you see is the biggest challenge facing your facility in the next 3 years?',</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E300" s="0" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="F300" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G300" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H300" s="0" t="s">
         <v>261</v>
       </c>
       <c r="I300" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39575,22 +39550,22 @@
         <v>'Do you have any other comments or suggestions?',</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E301" s="0" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="F301" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G301" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H301" s="0" t="s">
         <v>262</v>
       </c>
       <c r="I301" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39603,22 +39578,22 @@
         <v>'If you would like to receive a copy of the survey's aggregated and anonymised results please enter your email address',</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E302" s="0" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G302" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H302" s="0" t="s">
         <v>263</v>
       </c>
       <c r="I302" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39631,22 +39606,22 @@
         <v>'Complete?',</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E303" s="0" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="F303" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G303" s="0" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="H303" s="0" t="s">
         <v>264</v>
       </c>
       <c r="I303" s="0" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
